--- a/08_Others/Staff/補助役員リスト_フォーマット.xlsx
+++ b/08_Others/Staff/補助役員リスト_フォーマット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jpngym.sharepoint.com/sites/TRA885/Shared Documents/03_全日本選手権/2023/08_Others/Staff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="8_{01C4BA75-F63B-0946-95E6-CC3D728FB0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E61B809-C056-3849-8CD2-47D3C8915C57}"/>
+  <xr:revisionPtr revIDLastSave="369" documentId="8_{01C4BA75-F63B-0946-95E6-CC3D728FB0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C637C1CD-2847-9549-AEBD-769E83E7ACB3}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="760" windowWidth="28740" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31660" yWindow="540" windowWidth="28740" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 入力用 (日付)" sheetId="6" r:id="rId1"/>
@@ -1975,7 +1975,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2036,6 +2036,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="100">
     <border>
@@ -3326,7 +3332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3945,12 +3951,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3969,6 +3969,30 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3997,24 +4021,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4055,6 +4061,135 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4367,7 +4502,7 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="136" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -4430,104 +4565,104 @@
       </c>
       <c r="K3" s="235"/>
       <c r="L3" s="239"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
     </row>
     <row r="4" spans="1:14" ht="14" customHeight="1">
-      <c r="A4" s="222" t="s">
+      <c r="A4" s="228" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="223"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="224" t="s">
+      <c r="B4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="225"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="227" t="s">
+      <c r="E4" s="217"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="214" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="228"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="224" t="s">
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="216" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="225"/>
-      <c r="L4" s="229"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="208"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="219"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="206"/>
     </row>
     <row r="5" spans="1:14" ht="14" customHeight="1">
-      <c r="A5" s="227" t="s">
+      <c r="A5" s="214" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
-      <c r="D5" s="224" t="s">
+      <c r="B5" s="215"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="225"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="227" t="s">
+      <c r="E5" s="217"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="214" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="224" t="s">
+      <c r="H5" s="215"/>
+      <c r="I5" s="215"/>
+      <c r="J5" s="216" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="225"/>
-      <c r="L5" s="229"/>
-      <c r="M5" s="208"/>
-      <c r="N5" s="208"/>
+      <c r="K5" s="217"/>
+      <c r="L5" s="219"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
     </row>
     <row r="6" spans="1:14" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="214" t="s">
+      <c r="A6" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="215"/>
-      <c r="C6" s="215"/>
-      <c r="D6" s="216" t="s">
+      <c r="B6" s="221"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="217"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="219" t="s">
+      <c r="E6" s="223"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="217"/>
-      <c r="L6" s="221"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="283"/>
+      <c r="K6" s="284"/>
+      <c r="L6" s="285"/>
       <c r="M6" s="64"/>
       <c r="N6" s="64"/>
     </row>
     <row r="7" spans="1:14" ht="14" customHeight="1" thickBot="1">
-      <c r="A7" s="208"/>
-      <c r="B7" s="208"/>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
       <c r="M7" s="64"/>
       <c r="N7" s="64"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="209" t="s">
+      <c r="A8" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="210"/>
-      <c r="C8" s="210" t="s">
+      <c r="B8" s="208"/>
+      <c r="C8" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="213" t="s">
+      <c r="D8" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="206">
+      <c r="E8" s="212">
         <v>45211</v>
       </c>
-      <c r="F8" s="207"/>
+      <c r="F8" s="213"/>
       <c r="G8" s="199">
         <f>E8+1</f>
         <v>45212</v>
@@ -4545,10 +4680,10 @@
       <c r="L8" s="200"/>
     </row>
     <row r="9" spans="1:14" ht="17" thickBot="1">
-      <c r="A9" s="211"/>
-      <c r="B9" s="212"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="212"/>
+      <c r="A9" s="209"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
       <c r="E9" s="13" t="s">
         <v>12</v>
       </c>
@@ -4587,8 +4722,8 @@
       <c r="D10" s="153">
         <v>4</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="244"/>
       <c r="G10" s="44"/>
       <c r="H10" s="10"/>
       <c r="I10" s="44"/>
@@ -4601,8 +4736,8 @@
       <c r="B11" s="205"/>
       <c r="C11" s="186"/>
       <c r="D11" s="181"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="18"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="246"/>
       <c r="G11" s="43"/>
       <c r="H11" s="28"/>
       <c r="I11" s="43"/>
@@ -4615,8 +4750,8 @@
       <c r="B12" s="205"/>
       <c r="C12" s="186"/>
       <c r="D12" s="181"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="16"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="248"/>
       <c r="G12" s="26"/>
       <c r="H12" s="22"/>
       <c r="I12" s="26"/>
@@ -4629,8 +4764,8 @@
       <c r="B13" s="205"/>
       <c r="C13" s="186"/>
       <c r="D13" s="181"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="16"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="248"/>
       <c r="G13" s="137"/>
       <c r="H13" s="22"/>
       <c r="I13" s="26"/>
@@ -4649,8 +4784,8 @@
       <c r="D14" s="153">
         <v>1</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="250"/>
       <c r="G14" s="194"/>
       <c r="H14" s="192"/>
       <c r="I14" s="194"/>
@@ -4665,8 +4800,8 @@
       <c r="B15" s="186"/>
       <c r="C15" s="152"/>
       <c r="D15" s="154"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="18"/>
+      <c r="E15" s="245"/>
+      <c r="F15" s="246"/>
       <c r="G15" s="195"/>
       <c r="H15" s="193"/>
       <c r="I15" s="195"/>
@@ -4685,10 +4820,10 @@
       <c r="D16" s="172">
         <v>2</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="15"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="250"/>
+      <c r="G16" s="269"/>
+      <c r="H16" s="250"/>
       <c r="I16" s="11"/>
       <c r="J16" s="17"/>
       <c r="K16" s="11"/>
@@ -4699,10 +4834,10 @@
       <c r="B17" s="142"/>
       <c r="C17" s="142"/>
       <c r="D17" s="142"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="5"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="252"/>
+      <c r="G17" s="270"/>
+      <c r="H17" s="252"/>
       <c r="I17" s="48"/>
       <c r="J17" s="23"/>
       <c r="K17" s="68"/>
@@ -4721,10 +4856,10 @@
       <c r="D18" s="153">
         <v>8</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="46"/>
+      <c r="E18" s="253"/>
+      <c r="F18" s="254"/>
+      <c r="G18" s="271"/>
+      <c r="H18" s="254"/>
       <c r="I18" s="66"/>
       <c r="J18" s="27"/>
       <c r="K18" s="72"/>
@@ -4735,10 +4870,10 @@
       <c r="B19" s="189"/>
       <c r="C19" s="162"/>
       <c r="D19" s="181"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="74"/>
+      <c r="E19" s="255"/>
+      <c r="F19" s="256"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="256"/>
       <c r="I19" s="71"/>
       <c r="J19" s="76"/>
       <c r="K19" s="77"/>
@@ -4751,10 +4886,10 @@
       </c>
       <c r="C20" s="162"/>
       <c r="D20" s="181"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="80"/>
+      <c r="E20" s="257"/>
+      <c r="F20" s="258"/>
+      <c r="G20" s="273"/>
+      <c r="H20" s="258"/>
       <c r="I20" s="82"/>
       <c r="J20" s="83"/>
       <c r="K20" s="84"/>
@@ -4765,10 +4900,10 @@
       <c r="B21" s="191"/>
       <c r="C21" s="162"/>
       <c r="D21" s="181"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="2"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="244"/>
+      <c r="G21" s="274"/>
+      <c r="H21" s="244"/>
       <c r="I21" s="43"/>
       <c r="J21" s="94"/>
       <c r="K21" s="69"/>
@@ -4781,10 +4916,10 @@
       </c>
       <c r="C22" s="162"/>
       <c r="D22" s="181"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="18"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="246"/>
+      <c r="G22" s="275"/>
+      <c r="H22" s="246"/>
       <c r="I22" s="26"/>
       <c r="J22" s="95"/>
       <c r="K22" s="70"/>
@@ -4795,10 +4930,10 @@
       <c r="B23" s="189"/>
       <c r="C23" s="162"/>
       <c r="D23" s="181"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="74"/>
+      <c r="E23" s="255"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="272"/>
+      <c r="H23" s="256"/>
       <c r="I23" s="77"/>
       <c r="J23" s="65"/>
       <c r="K23" s="77"/>
@@ -4811,10 +4946,10 @@
       </c>
       <c r="C24" s="162"/>
       <c r="D24" s="181"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="89"/>
+      <c r="E24" s="261"/>
+      <c r="F24" s="262"/>
+      <c r="G24" s="276"/>
+      <c r="H24" s="262"/>
       <c r="I24" s="91"/>
       <c r="J24" s="92"/>
       <c r="K24" s="91"/>
@@ -4825,10 +4960,10 @@
       <c r="B25" s="162"/>
       <c r="C25" s="162"/>
       <c r="D25" s="181"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="18"/>
+      <c r="E25" s="260"/>
+      <c r="F25" s="246"/>
+      <c r="G25" s="275"/>
+      <c r="H25" s="246"/>
       <c r="I25" s="43"/>
       <c r="J25" s="65"/>
       <c r="K25" s="86"/>
@@ -4845,10 +4980,10 @@
       <c r="D26" s="153">
         <v>4</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="46"/>
+      <c r="E26" s="253"/>
+      <c r="F26" s="254"/>
+      <c r="G26" s="271"/>
+      <c r="H26" s="254"/>
       <c r="I26" s="66"/>
       <c r="J26" s="56"/>
       <c r="K26" s="66"/>
@@ -4859,10 +4994,10 @@
       <c r="B27" s="177"/>
       <c r="C27" s="162"/>
       <c r="D27" s="181"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="16"/>
+      <c r="E27" s="263"/>
+      <c r="F27" s="248"/>
+      <c r="G27" s="277"/>
+      <c r="H27" s="248"/>
       <c r="I27" s="8"/>
       <c r="J27" s="29"/>
       <c r="K27" s="8"/>
@@ -4873,10 +5008,10 @@
       <c r="B28" s="177"/>
       <c r="C28" s="162"/>
       <c r="D28" s="181"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="3"/>
+      <c r="E28" s="264"/>
+      <c r="F28" s="265"/>
+      <c r="G28" s="278"/>
+      <c r="H28" s="265"/>
       <c r="I28" s="49"/>
       <c r="J28" s="50"/>
       <c r="K28" s="49"/>
@@ -4887,10 +5022,10 @@
       <c r="B29" s="179"/>
       <c r="C29" s="180"/>
       <c r="D29" s="154"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="40"/>
+      <c r="E29" s="266"/>
+      <c r="F29" s="267"/>
+      <c r="G29" s="279"/>
+      <c r="H29" s="267"/>
       <c r="I29" s="67"/>
       <c r="J29" s="58"/>
       <c r="K29" s="67"/>
@@ -4907,10 +5042,10 @@
       <c r="D30" s="151">
         <v>12</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="15"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="250"/>
+      <c r="G30" s="269"/>
+      <c r="H30" s="250"/>
       <c r="I30" s="66"/>
       <c r="J30" s="27"/>
       <c r="K30" s="66"/>
@@ -4924,10 +5059,10 @@
       <c r="B31" s="183"/>
       <c r="C31" s="186"/>
       <c r="D31" s="186"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="3"/>
+      <c r="E31" s="268"/>
+      <c r="F31" s="265"/>
+      <c r="G31" s="278"/>
+      <c r="H31" s="265"/>
       <c r="I31" s="26"/>
       <c r="J31" s="4"/>
       <c r="K31" s="26"/>
@@ -4938,10 +5073,10 @@
       <c r="B32" s="183"/>
       <c r="C32" s="186"/>
       <c r="D32" s="186"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="3"/>
+      <c r="E32" s="268"/>
+      <c r="F32" s="265"/>
+      <c r="G32" s="278"/>
+      <c r="H32" s="265"/>
       <c r="I32" s="8"/>
       <c r="J32" s="4"/>
       <c r="K32" s="8"/>
@@ -4952,10 +5087,10 @@
       <c r="B33" s="183"/>
       <c r="C33" s="186"/>
       <c r="D33" s="186"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="3"/>
+      <c r="E33" s="268"/>
+      <c r="F33" s="265"/>
+      <c r="G33" s="278"/>
+      <c r="H33" s="265"/>
       <c r="I33" s="8"/>
       <c r="J33" s="4"/>
       <c r="K33" s="8"/>
@@ -4966,10 +5101,10 @@
       <c r="B34" s="183"/>
       <c r="C34" s="186"/>
       <c r="D34" s="186"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="3"/>
+      <c r="E34" s="268"/>
+      <c r="F34" s="265"/>
+      <c r="G34" s="278"/>
+      <c r="H34" s="265"/>
       <c r="I34" s="8"/>
       <c r="J34" s="4"/>
       <c r="K34" s="8"/>
@@ -4980,10 +5115,10 @@
       <c r="B35" s="183"/>
       <c r="C35" s="186"/>
       <c r="D35" s="186"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="3"/>
+      <c r="E35" s="268"/>
+      <c r="F35" s="265"/>
+      <c r="G35" s="278"/>
+      <c r="H35" s="265"/>
       <c r="I35" s="8"/>
       <c r="J35" s="4"/>
       <c r="K35" s="8"/>
@@ -4995,10 +5130,10 @@
       <c r="B36" s="183"/>
       <c r="C36" s="186"/>
       <c r="D36" s="186"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="3"/>
+      <c r="E36" s="268"/>
+      <c r="F36" s="265"/>
+      <c r="G36" s="278"/>
+      <c r="H36" s="265"/>
       <c r="I36" s="8"/>
       <c r="J36" s="4"/>
       <c r="K36" s="8"/>
@@ -5009,10 +5144,10 @@
       <c r="B37" s="183"/>
       <c r="C37" s="186"/>
       <c r="D37" s="186"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="3"/>
+      <c r="E37" s="268"/>
+      <c r="F37" s="265"/>
+      <c r="G37" s="278"/>
+      <c r="H37" s="265"/>
       <c r="I37" s="8"/>
       <c r="J37" s="4"/>
       <c r="K37" s="8"/>
@@ -5023,56 +5158,56 @@
       <c r="B38" s="183"/>
       <c r="C38" s="186"/>
       <c r="D38" s="186"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="3"/>
+      <c r="E38" s="268"/>
+      <c r="F38" s="265"/>
+      <c r="G38" s="278"/>
+      <c r="H38" s="265"/>
       <c r="I38" s="8"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="3"/>
+      <c r="K38" s="268"/>
+      <c r="L38" s="265"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="182"/>
       <c r="B39" s="183"/>
       <c r="C39" s="186"/>
       <c r="D39" s="186"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="3"/>
+      <c r="E39" s="268"/>
+      <c r="F39" s="265"/>
+      <c r="G39" s="278"/>
+      <c r="H39" s="265"/>
       <c r="I39" s="8"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="3"/>
+      <c r="K39" s="268"/>
+      <c r="L39" s="265"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="182"/>
       <c r="B40" s="183"/>
       <c r="C40" s="186"/>
       <c r="D40" s="186"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="16"/>
+      <c r="E40" s="268"/>
+      <c r="F40" s="265"/>
+      <c r="G40" s="277"/>
+      <c r="H40" s="248"/>
       <c r="I40" s="8"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="3"/>
+      <c r="K40" s="268"/>
+      <c r="L40" s="265"/>
     </row>
     <row r="41" spans="1:14" ht="17" thickBot="1">
       <c r="A41" s="184"/>
       <c r="B41" s="185"/>
       <c r="C41" s="152"/>
       <c r="D41" s="152"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="5"/>
+      <c r="E41" s="268"/>
+      <c r="F41" s="252"/>
+      <c r="G41" s="270"/>
+      <c r="H41" s="252"/>
       <c r="I41" s="8"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="5"/>
+      <c r="K41" s="251"/>
+      <c r="L41" s="252"/>
     </row>
     <row r="42" spans="1:14" ht="17" thickBot="1">
       <c r="A42" s="163" t="s">
@@ -5083,10 +5218,10 @@
         <v>31</v>
       </c>
       <c r="D42" s="45"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="15"/>
+      <c r="E42" s="249"/>
+      <c r="F42" s="250"/>
+      <c r="G42" s="269"/>
+      <c r="H42" s="250"/>
       <c r="I42" s="144" t="s">
         <v>31</v>
       </c>
@@ -5107,10 +5242,10 @@
       <c r="D43" s="172">
         <v>3</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="15"/>
+      <c r="E43" s="249"/>
+      <c r="F43" s="250"/>
+      <c r="G43" s="249"/>
+      <c r="H43" s="250"/>
       <c r="I43" s="11"/>
       <c r="J43" s="105"/>
       <c r="K43" s="11"/>
@@ -5121,10 +5256,10 @@
       <c r="B44" s="169"/>
       <c r="C44" s="138"/>
       <c r="D44" s="138"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="3"/>
+      <c r="E44" s="268"/>
+      <c r="F44" s="265"/>
+      <c r="G44" s="268"/>
+      <c r="H44" s="265"/>
       <c r="I44" s="8"/>
       <c r="J44" s="4"/>
       <c r="K44" s="8"/>
@@ -5135,10 +5270,10 @@
       <c r="B45" s="171"/>
       <c r="C45" s="173"/>
       <c r="D45" s="173"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="16"/>
+      <c r="E45" s="247"/>
+      <c r="F45" s="248"/>
+      <c r="G45" s="247"/>
+      <c r="H45" s="248"/>
       <c r="I45" s="62"/>
       <c r="J45" s="63"/>
       <c r="K45" s="62"/>
@@ -5155,10 +5290,10 @@
       <c r="D46" s="153">
         <v>1</v>
       </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="15"/>
+      <c r="E46" s="249"/>
+      <c r="F46" s="250"/>
+      <c r="G46" s="269"/>
+      <c r="H46" s="250"/>
       <c r="I46" s="11"/>
       <c r="J46" s="61"/>
       <c r="K46" s="11"/>
@@ -5169,14 +5304,14 @@
       <c r="B47" s="150"/>
       <c r="C47" s="152"/>
       <c r="D47" s="154"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="18"/>
+      <c r="E47" s="245"/>
+      <c r="F47" s="246"/>
+      <c r="G47" s="275"/>
+      <c r="H47" s="246"/>
+      <c r="I47" s="245"/>
+      <c r="J47" s="246"/>
+      <c r="K47" s="275"/>
+      <c r="L47" s="246"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="155" t="s">
@@ -5193,10 +5328,10 @@
       <c r="F48" s="101"/>
       <c r="G48" s="11"/>
       <c r="H48" s="17"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="15"/>
+      <c r="I48" s="269"/>
+      <c r="J48" s="250"/>
+      <c r="K48" s="269"/>
+      <c r="L48" s="250"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="157"/>
@@ -5207,10 +5342,10 @@
       <c r="F49" s="63"/>
       <c r="G49" s="44"/>
       <c r="H49" s="10"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="3"/>
+      <c r="I49" s="278"/>
+      <c r="J49" s="265"/>
+      <c r="K49" s="278"/>
+      <c r="L49" s="265"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="157"/>
@@ -5221,10 +5356,10 @@
       <c r="F50" s="63"/>
       <c r="G50" s="8"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="3"/>
+      <c r="I50" s="278"/>
+      <c r="J50" s="265"/>
+      <c r="K50" s="278"/>
+      <c r="L50" s="265"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="157"/>
@@ -5235,10 +5370,10 @@
       <c r="F51" s="63"/>
       <c r="G51" s="8"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="3"/>
+      <c r="I51" s="278"/>
+      <c r="J51" s="265"/>
+      <c r="K51" s="278"/>
+      <c r="L51" s="265"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="157"/>
@@ -5249,10 +5384,10 @@
       <c r="F52" s="63"/>
       <c r="G52" s="8"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="3"/>
+      <c r="I52" s="278"/>
+      <c r="J52" s="265"/>
+      <c r="K52" s="278"/>
+      <c r="L52" s="265"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="157"/>
@@ -5263,10 +5398,10 @@
       <c r="F53" s="63"/>
       <c r="G53" s="8"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="3"/>
+      <c r="I53" s="278"/>
+      <c r="J53" s="265"/>
+      <c r="K53" s="278"/>
+      <c r="L53" s="265"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="157"/>
@@ -5277,10 +5412,10 @@
       <c r="F54" s="63"/>
       <c r="G54" s="8"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="3"/>
+      <c r="I54" s="278"/>
+      <c r="J54" s="265"/>
+      <c r="K54" s="278"/>
+      <c r="L54" s="265"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="157"/>
@@ -5291,10 +5426,10 @@
       <c r="F55" s="63"/>
       <c r="G55" s="8"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="3"/>
+      <c r="I55" s="278"/>
+      <c r="J55" s="265"/>
+      <c r="K55" s="278"/>
+      <c r="L55" s="265"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="157"/>
@@ -5305,10 +5440,10 @@
       <c r="F56" s="63"/>
       <c r="G56" s="8"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="3"/>
+      <c r="I56" s="278"/>
+      <c r="J56" s="265"/>
+      <c r="K56" s="278"/>
+      <c r="L56" s="265"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="157"/>
@@ -5319,10 +5454,10 @@
       <c r="F57" s="63"/>
       <c r="G57" s="8"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="3"/>
+      <c r="I57" s="278"/>
+      <c r="J57" s="265"/>
+      <c r="K57" s="278"/>
+      <c r="L57" s="265"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="157"/>
@@ -5333,10 +5468,10 @@
       <c r="F58" s="63"/>
       <c r="G58" s="8"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="3"/>
+      <c r="I58" s="278"/>
+      <c r="J58" s="265"/>
+      <c r="K58" s="278"/>
+      <c r="L58" s="265"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="157"/>
@@ -5347,10 +5482,10 @@
       <c r="F59" s="63"/>
       <c r="G59" s="8"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="3"/>
+      <c r="I59" s="278"/>
+      <c r="J59" s="265"/>
+      <c r="K59" s="278"/>
+      <c r="L59" s="265"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="157"/>
@@ -5361,10 +5496,10 @@
       <c r="F60" s="113"/>
       <c r="G60" s="26"/>
       <c r="H60" s="22"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="16"/>
+      <c r="I60" s="277"/>
+      <c r="J60" s="248"/>
+      <c r="K60" s="277"/>
+      <c r="L60" s="248"/>
     </row>
     <row r="61" spans="1:12" ht="17" thickBot="1">
       <c r="A61" s="141" t="s">
@@ -5375,12 +5510,12 @@
         <v>31</v>
       </c>
       <c r="D61" s="108"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="114"/>
+      <c r="E61" s="251"/>
+      <c r="F61" s="252"/>
+      <c r="G61" s="270"/>
+      <c r="H61" s="252"/>
+      <c r="I61" s="270"/>
+      <c r="J61" s="280"/>
       <c r="K61" s="141" t="s">
         <v>35</v>
       </c>
@@ -5397,1219 +5532,8 @@
       <c r="D62" s="103">
         <v>1</v>
       </c>
-      <c r="E62" s="37"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="104"/>
-      <c r="H62" s="102"/>
-      <c r="I62" s="104"/>
-      <c r="J62" s="102"/>
-      <c r="K62" s="104"/>
-      <c r="L62" s="102"/>
-    </row>
-    <row r="63" spans="1:12" ht="9" customHeight="1">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="146"/>
-      <c r="B64" s="146"/>
-      <c r="C64" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="65"/>
-      <c r="E64" s="138" t="s">
-        <v>38</v>
-      </c>
-      <c r="F64" s="138"/>
-      <c r="G64" s="138" t="s">
-        <v>38</v>
-      </c>
-      <c r="H64" s="138"/>
-      <c r="I64" s="138" t="s">
-        <v>38</v>
-      </c>
-      <c r="J64" s="138"/>
-      <c r="K64" s="138" t="s">
-        <v>38</v>
-      </c>
-      <c r="L64" s="138"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="100"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="D65" s="65"/>
-      <c r="E65" s="138"/>
-      <c r="F65" s="138"/>
-      <c r="G65" s="138"/>
-      <c r="H65" s="138"/>
-      <c r="I65" s="138"/>
-      <c r="J65" s="138"/>
-      <c r="K65" s="138"/>
-      <c r="L65" s="138"/>
-    </row>
-    <row r="66" spans="1:14" s="64" customFormat="1">
-      <c r="A66" s="139"/>
-      <c r="B66" s="139"/>
-      <c r="C66" s="140"/>
-      <c r="D66" s="140"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A48:B60"/>
-    <mergeCell ref="C48:C60"/>
-    <mergeCell ref="D48:D60"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="A43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="A26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="A30:B41"/>
-    <mergeCell ref="C30:C41"/>
-    <mergeCell ref="D30:D41"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.39370078740157483" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE5334A-1689-497D-B78F-C3ABEAC44C33}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:N66"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="136" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="2" width="8.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" style="1" customWidth="1"/>
-    <col min="7" max="12" width="11.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A1" s="230" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-    </row>
-    <row r="2" spans="1:14" ht="26" customHeight="1" thickBot="1">
-      <c r="J2" s="231" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-    </row>
-    <row r="3" spans="1:14" ht="14" customHeight="1">
-      <c r="A3" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="234" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="235"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="237" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="234" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="235"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-    </row>
-    <row r="4" spans="1:14" ht="14" customHeight="1">
-      <c r="A4" s="222" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="223"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="224" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="225"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="227" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="228"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="224" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="225"/>
-      <c r="L4" s="229"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="208"/>
-    </row>
-    <row r="5" spans="1:14" ht="14" customHeight="1">
-      <c r="A5" s="227" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
-      <c r="D5" s="224" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="225"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="227" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="224" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="225"/>
-      <c r="L5" s="229"/>
-      <c r="M5" s="208"/>
-      <c r="N5" s="208"/>
-    </row>
-    <row r="6" spans="1:14" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="214" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="215"/>
-      <c r="C6" s="215"/>
-      <c r="D6" s="216" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="217"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="219" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="217"/>
-      <c r="L6" s="221"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-    </row>
-    <row r="7" spans="1:14" ht="14" customHeight="1" thickBot="1">
-      <c r="A7" s="208"/>
-      <c r="B7" s="208"/>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="209" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="210"/>
-      <c r="C8" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="213" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="206">
-        <v>45211</v>
-      </c>
-      <c r="F8" s="207"/>
-      <c r="G8" s="199">
-        <f>E8+1</f>
-        <v>45212</v>
-      </c>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201">
-        <f>G8+1</f>
-        <v>45213</v>
-      </c>
-      <c r="J8" s="202"/>
-      <c r="K8" s="199">
-        <f>I8+1</f>
-        <v>45214</v>
-      </c>
-      <c r="L8" s="200"/>
-    </row>
-    <row r="9" spans="1:14" ht="17" thickBot="1">
-      <c r="A9" s="211"/>
-      <c r="B9" s="212"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="197" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="204" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="151" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="153">
-        <v>4</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="203"/>
-      <c r="B11" s="205"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="28"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="203"/>
-      <c r="B12" s="205"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="1:14" ht="17" thickBot="1">
-      <c r="A13" s="203"/>
-      <c r="B13" s="205"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="163" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="164"/>
-      <c r="C14" s="151" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="153">
-        <v>1</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="192"/>
-    </row>
-    <row r="15" spans="1:14" ht="17" thickBot="1">
-      <c r="A15" s="196" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="186"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="195"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="195"/>
-      <c r="L15" s="193"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="197" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="172"/>
-      <c r="C16" s="198" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="172">
-        <v>2</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="1:14" ht="17" thickBot="1">
-      <c r="A17" s="141"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="23"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="187" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="161" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="161" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="153">
-        <v>8</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A19" s="188"/>
-      <c r="B19" s="189"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="78"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="188"/>
-      <c r="B20" s="190" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="162"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="85"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="188"/>
-      <c r="B21" s="191"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="188"/>
-      <c r="B22" s="190" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="162"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="28"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="188"/>
-      <c r="B23" s="189"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="87"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="188"/>
-      <c r="B24" s="190" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="162"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="93"/>
-    </row>
-    <row r="25" spans="1:14" ht="17" thickBot="1">
-      <c r="A25" s="188"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="181"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="28"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="174" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="175"/>
-      <c r="C26" s="161" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="153">
-        <v>4</v>
-      </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="27"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="176"/>
-      <c r="B27" s="177"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="176"/>
-      <c r="B28" s="177"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="51"/>
-    </row>
-    <row r="29" spans="1:14" ht="17" thickBot="1">
-      <c r="A29" s="178"/>
-      <c r="B29" s="179"/>
-      <c r="C29" s="180"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="59"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="163" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="151" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="151">
-        <v>12</v>
-      </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="27"/>
-      <c r="N30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="182"/>
-      <c r="B31" s="183"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="22"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="182"/>
-      <c r="B32" s="183"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="182"/>
-      <c r="B33" s="183"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="182"/>
-      <c r="B34" s="183"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="182"/>
-      <c r="B35" s="183"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="4"/>
-      <c r="N35" s="65"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="182"/>
-      <c r="B36" s="183"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="182"/>
-      <c r="B37" s="183"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="186"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="182"/>
-      <c r="B38" s="183"/>
-      <c r="C38" s="186"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="182"/>
-      <c r="B39" s="183"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="186"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="182"/>
-      <c r="B40" s="183"/>
-      <c r="C40" s="186"/>
-      <c r="D40" s="186"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" ht="17" thickBot="1">
-      <c r="A41" s="184"/>
-      <c r="B41" s="185"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="1:14" ht="17" thickBot="1">
-      <c r="A42" s="163" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="164"/>
-      <c r="C42" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="144" t="s">
-        <v>31</v>
-      </c>
-      <c r="J42" s="165"/>
-      <c r="K42" s="144" t="s">
-        <v>31</v>
-      </c>
-      <c r="L42" s="165"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="166" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="167"/>
-      <c r="C43" s="172" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="172">
-        <v>3</v>
-      </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="105"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="168"/>
-      <c r="B44" s="169"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="1:14" ht="17" thickBot="1">
-      <c r="A45" s="170"/>
-      <c r="B45" s="171"/>
-      <c r="C45" s="173"/>
-      <c r="D45" s="173"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="63"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="147" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="148"/>
-      <c r="C46" s="151" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="153">
-        <v>1</v>
-      </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="17"/>
-    </row>
-    <row r="47" spans="1:14" ht="17" thickBot="1">
-      <c r="A47" s="149"/>
-      <c r="B47" s="150"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="154"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="18"/>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="155" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="156"/>
-      <c r="C48" s="159" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="161" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="99"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="15"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="157"/>
-      <c r="B49" s="158"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="162"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="157"/>
-      <c r="B50" s="158"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="162"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="157"/>
-      <c r="B51" s="158"/>
-      <c r="C51" s="160"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="157"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="160"/>
-      <c r="D52" s="162"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="157"/>
-      <c r="B53" s="158"/>
-      <c r="C53" s="160"/>
-      <c r="D53" s="162"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="157"/>
-      <c r="B54" s="158"/>
-      <c r="C54" s="160"/>
-      <c r="D54" s="162"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="157"/>
-      <c r="B55" s="158"/>
-      <c r="C55" s="160"/>
-      <c r="D55" s="162"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="157"/>
-      <c r="B56" s="158"/>
-      <c r="C56" s="160"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="157"/>
-      <c r="B57" s="158"/>
-      <c r="C57" s="160"/>
-      <c r="D57" s="162"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="157"/>
-      <c r="B58" s="158"/>
-      <c r="C58" s="160"/>
-      <c r="D58" s="162"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="157"/>
-      <c r="B59" s="158"/>
-      <c r="C59" s="160"/>
-      <c r="D59" s="162"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="157"/>
-      <c r="B60" s="158"/>
-      <c r="C60" s="160"/>
-      <c r="D60" s="162"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="16"/>
-    </row>
-    <row r="61" spans="1:12" ht="17" thickBot="1">
-      <c r="A61" s="141" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" s="142"/>
-      <c r="C61" s="108" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="108"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="114"/>
-      <c r="K61" s="141" t="s">
-        <v>35</v>
-      </c>
-      <c r="L61" s="143"/>
-    </row>
-    <row r="62" spans="1:12" ht="17" thickBot="1">
-      <c r="A62" s="144" t="s">
-        <v>36</v>
-      </c>
-      <c r="B62" s="145"/>
-      <c r="C62" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="103">
-        <v>1</v>
-      </c>
-      <c r="E62" s="37"/>
-      <c r="F62" s="25"/>
+      <c r="E62" s="281"/>
+      <c r="F62" s="282"/>
       <c r="G62" s="104"/>
       <c r="H62" s="102"/>
       <c r="I62" s="104"/>
@@ -6781,6 +5705,1217 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE5334A-1689-497D-B78F-C3ABEAC44C33}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N66"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="136" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7" max="12" width="11.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A1" s="230" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="230"/>
+      <c r="L1" s="230"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" spans="1:14" ht="26" customHeight="1" thickBot="1">
+      <c r="J2" s="231" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="231"/>
+      <c r="L2" s="231"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+    </row>
+    <row r="3" spans="1:14" ht="14" customHeight="1">
+      <c r="A3" s="232" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="233"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="234" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="235"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="237" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="234" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="235"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+    </row>
+    <row r="4" spans="1:14" ht="14" customHeight="1">
+      <c r="A4" s="228" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="216" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="217"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="214" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="216" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="217"/>
+      <c r="L4" s="219"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="206"/>
+    </row>
+    <row r="5" spans="1:14" ht="14" customHeight="1">
+      <c r="A5" s="214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="215"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="216" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="217"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="214" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="215"/>
+      <c r="I5" s="215"/>
+      <c r="J5" s="216" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="217"/>
+      <c r="L5" s="219"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
+    </row>
+    <row r="6" spans="1:14" ht="14" customHeight="1" thickBot="1">
+      <c r="A6" s="220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="221"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="222" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="223"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="225" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+    </row>
+    <row r="7" spans="1:14" ht="14" customHeight="1" thickBot="1">
+      <c r="A7" s="206"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="207" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="208"/>
+      <c r="C8" s="208" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="211" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="212">
+        <v>45211</v>
+      </c>
+      <c r="F8" s="213"/>
+      <c r="G8" s="199">
+        <f>E8+1</f>
+        <v>45212</v>
+      </c>
+      <c r="H8" s="200"/>
+      <c r="I8" s="201">
+        <f>G8+1</f>
+        <v>45213</v>
+      </c>
+      <c r="J8" s="202"/>
+      <c r="K8" s="199">
+        <f>I8+1</f>
+        <v>45214</v>
+      </c>
+      <c r="L8" s="200"/>
+    </row>
+    <row r="9" spans="1:14" ht="17" thickBot="1">
+      <c r="A9" s="209"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="197" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="204" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="153">
+        <v>4</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="203"/>
+      <c r="B11" s="205"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="203"/>
+      <c r="B12" s="205"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" ht="17" thickBot="1">
+      <c r="A13" s="203"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="164"/>
+      <c r="C14" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="153">
+        <v>1</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="192"/>
+    </row>
+    <row r="15" spans="1:14" ht="17" thickBot="1">
+      <c r="A15" s="196" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="186"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="195"/>
+      <c r="L15" s="193"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="197" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="172"/>
+      <c r="C16" s="198" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="172">
+        <v>2</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:14" ht="17" thickBot="1">
+      <c r="A17" s="141"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A18" s="187" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="161" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="153">
+        <v>8</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A19" s="188"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="78"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A20" s="188"/>
+      <c r="B20" s="190" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="162"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="85"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="188"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="188"/>
+      <c r="B22" s="190" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="162"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="188"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="87"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="188"/>
+      <c r="B24" s="190" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="162"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="93"/>
+    </row>
+    <row r="25" spans="1:14" ht="17" thickBot="1">
+      <c r="A25" s="188"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="174" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="175"/>
+      <c r="C26" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="153">
+        <v>4</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="27"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="176"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="176"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="51"/>
+    </row>
+    <row r="29" spans="1:14" ht="17" thickBot="1">
+      <c r="A29" s="178"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="59"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="163" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="164"/>
+      <c r="C30" s="151" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="151">
+        <v>12</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="27"/>
+      <c r="N30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="182"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="182"/>
+      <c r="B32" s="183"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="182"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="182"/>
+      <c r="B34" s="183"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="182"/>
+      <c r="B35" s="183"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="4"/>
+      <c r="N35" s="65"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="182"/>
+      <c r="B36" s="183"/>
+      <c r="C36" s="186"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="182"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="182"/>
+      <c r="B38" s="183"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="182"/>
+      <c r="B39" s="183"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="186"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="182"/>
+      <c r="B40" s="183"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" ht="17" thickBot="1">
+      <c r="A41" s="184"/>
+      <c r="B41" s="185"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:14" ht="17" thickBot="1">
+      <c r="A42" s="163" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="164"/>
+      <c r="C42" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="45"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="144" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="165"/>
+      <c r="K42" s="144" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="165"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="166" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="167"/>
+      <c r="C43" s="172" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="172">
+        <v>3</v>
+      </c>
+      <c r="E43" s="33"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="105"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="168"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:14" ht="17" thickBot="1">
+      <c r="A45" s="170"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="173"/>
+      <c r="D45" s="173"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="63"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="147" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="148"/>
+      <c r="C46" s="151" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="153">
+        <v>1</v>
+      </c>
+      <c r="E46" s="33"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="17"/>
+    </row>
+    <row r="47" spans="1:14" ht="17" thickBot="1">
+      <c r="A47" s="149"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="18"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A48" s="155" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="156"/>
+      <c r="C48" s="159" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="161" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="99"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="15"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="157"/>
+      <c r="B49" s="158"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="162"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="157"/>
+      <c r="B50" s="158"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="157"/>
+      <c r="B51" s="158"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="162"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="157"/>
+      <c r="B52" s="158"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="162"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="157"/>
+      <c r="B53" s="158"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="162"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="157"/>
+      <c r="B54" s="158"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="162"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="157"/>
+      <c r="B55" s="158"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="162"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="157"/>
+      <c r="B56" s="158"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="162"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="157"/>
+      <c r="B57" s="158"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="162"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="157"/>
+      <c r="B58" s="158"/>
+      <c r="C58" s="160"/>
+      <c r="D58" s="162"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="157"/>
+      <c r="B59" s="158"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="162"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="157"/>
+      <c r="B60" s="158"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="162"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="113"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="16"/>
+    </row>
+    <row r="61" spans="1:12" ht="17" thickBot="1">
+      <c r="A61" s="141" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="142"/>
+      <c r="C61" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="108"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="114"/>
+      <c r="K61" s="141" t="s">
+        <v>35</v>
+      </c>
+      <c r="L61" s="143"/>
+    </row>
+    <row r="62" spans="1:12" ht="17" thickBot="1">
+      <c r="A62" s="144" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="145"/>
+      <c r="C62" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="103">
+        <v>1</v>
+      </c>
+      <c r="E62" s="37"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="102"/>
+      <c r="I62" s="104"/>
+      <c r="J62" s="102"/>
+      <c r="K62" s="104"/>
+      <c r="L62" s="102"/>
+    </row>
+    <row r="63" spans="1:12" ht="9" customHeight="1">
+      <c r="A63" s="65"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="146"/>
+      <c r="B64" s="146"/>
+      <c r="C64" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="65"/>
+      <c r="E64" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="138"/>
+      <c r="G64" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" s="138"/>
+      <c r="I64" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="J64" s="138"/>
+      <c r="K64" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="L64" s="138"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="100"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="65"/>
+      <c r="E65" s="138"/>
+      <c r="F65" s="138"/>
+      <c r="G65" s="138"/>
+      <c r="H65" s="138"/>
+      <c r="I65" s="138"/>
+      <c r="J65" s="138"/>
+      <c r="K65" s="138"/>
+      <c r="L65" s="138"/>
+    </row>
+    <row r="66" spans="1:14" s="64" customFormat="1">
+      <c r="A66" s="139"/>
+      <c r="B66" s="139"/>
+      <c r="C66" s="140"/>
+      <c r="D66" s="140"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="86">
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A48:B60"/>
+    <mergeCell ref="C48:C60"/>
+    <mergeCell ref="D48:D60"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="A43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="A26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="A30:B41"/>
+    <mergeCell ref="C30:C41"/>
+    <mergeCell ref="D30:D41"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.39370078740157483" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAABF3CA-72E9-AC4F-9531-893B575DA744}">
   <sheetPr>
@@ -7168,14 +7303,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="952e7e5e-963e-4d92-84b7-491b93135911">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1b7a6422-acb0-42a5-b83e-dbe86ecd454b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7422,39 +7555,56 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="952e7e5e-963e-4d92-84b7-491b93135911">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1b7a6422-acb0-42a5-b83e-dbe86ecd454b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{588E52DF-C2D8-4A9F-BCBE-C027F075E2AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A6A6A2-5FE6-4C68-84F6-1DA0F47215DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1b7a6422-acb0-42a5-b83e-dbe86ecd454b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="952e7e5e-963e-4d92-84b7-491b93135911"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2368E694-FE18-4C3C-8AAE-151A6A5DDD4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2368E694-FE18-4C3C-8AAE-151A6A5DDD4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="952e7e5e-963e-4d92-84b7-491b93135911"/>
+    <ds:schemaRef ds:uri="1b7a6422-acb0-42a5-b83e-dbe86ecd454b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A6A6A2-5FE6-4C68-84F6-1DA0F47215DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{588E52DF-C2D8-4A9F-BCBE-C027F075E2AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="952e7e5e-963e-4d92-84b7-491b93135911"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1b7a6422-acb0-42a5-b83e-dbe86ecd454b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>